--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181610.4454699403</v>
+        <v>180392.2920670368</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21676464.76147075</v>
+        <v>22099924.35763669</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7008320.678516638</v>
+        <v>7423353.428718869</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5785097.420005052</v>
+        <v>5576499.113312964</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -671,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.2655910901553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>264.8224764275586</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -817,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>130.6767931660343</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5829343862776</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>294.4813050116883</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>63.38538835442658</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>102.8562685532377</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>79.91587893911175</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>167.5775678651637</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>123.4566721242142</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1184,22 +1186,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>163.2209990735473</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>265.2065444594717</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>73.01514676193452</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>69.45405731752562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.82248040556814</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>92.94317397949455</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1771,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>164.9135579823459</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1859,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>190.1558021083726</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>11.99951178342651</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2093,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>28.60468344882653</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>133.0441643162411</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225752</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2318,16 +2320,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2375,13 +2377,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>93.46886202391953</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2476,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>56.95997704284469</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2561,13 +2563,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>183.3418284345162</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>149.4370413361369</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2792,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>57.22925732445466</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>141.2574504700825</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3029,7 +3031,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>162.6716837470832</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>264.8725316566255</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3266,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>428.0569317094648</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>132.162386897836</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3326,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135512</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>56.43256781341088</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>163.4674767794823</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.13954148002296</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>105.074739083736</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>34.75529100421647</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>332.8743775091454</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6472708796359</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>923.085746195889</v>
+        <v>1835.475132246174</v>
       </c>
       <c r="C2" t="n">
-        <v>923.085746195889</v>
+        <v>1397.332659429597</v>
       </c>
       <c r="D2" t="n">
-        <v>487.1759613703334</v>
+        <v>961.4228746040417</v>
       </c>
       <c r="E2" t="n">
-        <v>53.40121652862857</v>
+        <v>527.6481297623368</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>527.6481297623368</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862857</v>
@@ -4328,22 +4330,22 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719777</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.72477542213</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1598.869320833164</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.371869896236</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y2" t="n">
-        <v>923.085746195889</v>
+        <v>2261.774702731082</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>397.8892067392438</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392438</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392438</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392438</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392438</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392438</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>756.2584298497669</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4483,16 +4485,16 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4513,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1699.551502431416</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X4" t="n">
-        <v>1454.159747764828</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1355.737693134413</v>
+        <v>752.2549115535347</v>
       </c>
       <c r="C5" t="n">
-        <v>917.5952203178363</v>
+        <v>752.2549115535347</v>
       </c>
       <c r="D5" t="n">
-        <v>481.6854354922808</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>518.3865980530361</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678371</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2606.035181628977</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2606.035181628977</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V5" t="n">
-        <v>2606.035181628977</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="W5" t="n">
-        <v>2201.17972704001</v>
+        <v>2005.983069159479</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.037263619321</v>
+        <v>1586.840605738789</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.037263619321</v>
+        <v>1178.554482038443</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4702,34 +4704,34 @@
         <v>900.7186013536161</v>
       </c>
       <c r="C7" t="n">
-        <v>900.7186013536161</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D7" t="n">
-        <v>734.8406085551388</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="E7" t="n">
-        <v>565.0826048058761</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>388.3755507676324</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>222.78427579346</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.966918709668</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.824445893091</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.824445893091</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E8" t="n">
-        <v>869.0497010513864</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
         <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W8" t="n">
-        <v>2586.408952615265</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.266489194576</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y8" t="n">
-        <v>2167.266489194576</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713194</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1350.953175786681</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="C11" t="n">
-        <v>1350.953175786681</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="D11" t="n">
-        <v>915.0433909611256</v>
+        <v>1047.536173530043</v>
       </c>
       <c r="E11" t="n">
-        <v>481.2686461194208</v>
+        <v>1047.536173530043</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862856</v>
+        <v>619.6687439392508</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>218.2709125625147</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5069,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2449.993599304466</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W11" t="n">
-        <v>2045.1381447155</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X11" t="n">
-        <v>1777.252746271589</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y11" t="n">
-        <v>1777.252746271589</v>
+        <v>1483.445958355599</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5121,22 +5123,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L12" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M12" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
         <v>1599.468199913098</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>900.7186013536157</v>
+        <v>1113.955041367231</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1568898368406</v>
+        <v>941.3933298504563</v>
       </c>
       <c r="D13" t="n">
-        <v>562.2788970383633</v>
+        <v>775.515337051979</v>
       </c>
       <c r="E13" t="n">
-        <v>392.5208932891006</v>
+        <v>605.7573333027162</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8138392508568</v>
+        <v>429.0502792644725</v>
       </c>
       <c r="G13" t="n">
-        <v>215.8138392508568</v>
+        <v>263.4590042903001</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>123.5568299806746</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K13" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>2124.33055796836</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.375049838791</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1565.348645425082</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.956890758495</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>1092.537220072603</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>776.7229052999771</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C14" t="n">
-        <v>776.7229052999771</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D14" t="n">
-        <v>776.7229052999771</v>
+        <v>575.5674294109622</v>
       </c>
       <c r="E14" t="n">
-        <v>342.9481604582723</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F14" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G14" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>518.386598053036</v>
       </c>
       <c r="L14" t="n">
-        <v>1293.567921177998</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M14" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5309,19 +5311,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>1643.366119093304</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X14" t="n">
-        <v>1224.223655672615</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y14" t="n">
-        <v>815.9375319722682</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5358,19 +5360,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
         <v>1058.729261281022</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>900.7186013536161</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1568898368411</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D16" t="n">
-        <v>562.2788970383638</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T16" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U16" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W16" t="n">
-        <v>1565.348645425083</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.956890758495</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y16" t="n">
-        <v>1092.537220072603</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1752.351007163417</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="C17" t="n">
-        <v>1752.351007163417</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="D17" t="n">
-        <v>1316.441222337862</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="E17" t="n">
-        <v>882.6664774961569</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>647.2924050644597</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>245.8945736877236</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>687.540662806093</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M17" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>2009.22077188965</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P17" t="n">
-        <v>2670.060826431428</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q17" t="n">
         <v>2670.060826431428</v>
@@ -5543,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2178.650577648325</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W17" t="n">
-        <v>2178.650577648325</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>2178.650577648325</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y17" t="n">
-        <v>2178.650577648325</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K18" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L18" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M18" t="n">
-        <v>1064.863269197077</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N18" t="n">
-        <v>1064.863269197077</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O18" t="n">
-        <v>1064.863269197077</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P18" t="n">
-        <v>1064.863269197077</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5698,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1808.553196530278</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="C20" t="n">
-        <v>1370.410723713701</v>
+        <v>1668.976949988744</v>
       </c>
       <c r="D20" t="n">
-        <v>934.5009388881458</v>
+        <v>1233.067165163189</v>
       </c>
       <c r="E20" t="n">
-        <v>500.726194046441</v>
+        <v>799.2924203214839</v>
       </c>
       <c r="F20" t="n">
-        <v>72.85876445564877</v>
+        <v>371.4249907306916</v>
       </c>
       <c r="G20" t="n">
-        <v>72.85876445564877</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>72.85876445564877</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>295.7210769600831</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>295.7210769600831</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>295.7210769600831</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>1197.348287098736</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>2098.97549723739</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P20" t="n">
-        <v>2927.285372070786</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q20" t="n">
-        <v>3473.784158029381</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>3559.286348966275</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>3424.898304202395</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U20" t="n">
-        <v>3424.898304202395</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V20" t="n">
-        <v>3062.281354136222</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W20" t="n">
-        <v>3062.281354136222</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X20" t="n">
-        <v>2643.138890715532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2234.852767015186</v>
+        <v>2107.119422805321</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2485.870206294922</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>2379.413745131565</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>2284.323456278118</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>2190.203041605072</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>2106.819203221233</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>2021.434113487417</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>1979.69846130363</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>2005.762134464087</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>2330.3204594303</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>2985.026506056023</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>2985.026506056023</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>2985.026506056023</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>2985.026506056023</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>2985.026506056023</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>2985.026506056023</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>3525.765444688098</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>3642.938222782438</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>3579.482785230821</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>3449.304141561423</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>3272.967594561391</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>3073.850076623391</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>2888.527322356585</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>2733.659886595465</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>2607.174107374686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.5939705752644</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>769.0322590584893</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>603.154266260012</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>433.3962625107493</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>256.6892084725055</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>91.09793349833313</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>159.4384496203386</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>434.1969041914742</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>852.4067859594353</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M22" t="n">
-        <v>1311.890653140348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1754.149456297993</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.818705523774</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2521.325599494116</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2689.518374358448</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2443.638927936904</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2165.205927190009</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1878.250419060439</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1606.224014646731</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1360.832259980143</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.412589294252</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>1178.120736676713</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>1178.120736676713</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>1178.120736676713</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>2012.706430861968</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>2012.706430861968</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>2012.706430861968</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>1604.420307161621</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1328.851305547497</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C26" t="n">
-        <v>890.7088327309202</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D26" t="n">
-        <v>454.7990479053647</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>454.7990479053647</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F26" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K26" t="n">
-        <v>518.3865980530361</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L26" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M26" t="n">
-        <v>1840.066707136593</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N26" t="n">
-        <v>2500.906761678371</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O26" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2401.215186519794</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2141.992883836811</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V26" t="n">
-        <v>2141.992883836811</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W26" t="n">
-        <v>1737.137429247844</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X26" t="n">
-        <v>1737.137429247844</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y26" t="n">
-        <v>1328.851305547497</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R27" t="n">
         <v>1716.640978007438</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2489.401636434797</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>2210.968635687902</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>940.4738081269192</v>
+        <v>1068.002727591034</v>
       </c>
       <c r="C29" t="n">
-        <v>940.4738081269192</v>
+        <v>629.8602547744572</v>
       </c>
       <c r="D29" t="n">
-        <v>940.4738081269192</v>
+        <v>629.8602547744572</v>
       </c>
       <c r="E29" t="n">
-        <v>882.6664774961569</v>
+        <v>196.0855099327524</v>
       </c>
       <c r="F29" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M29" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N29" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6491,22 +6493,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U29" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V29" t="n">
-        <v>2190.771296621483</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W29" t="n">
-        <v>1785.915842032516</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X29" t="n">
-        <v>1366.773378611827</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="Y29" t="n">
-        <v>1366.773378611827</v>
+        <v>1494.302298075942</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C30" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D30" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E30" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F30" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G30" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I30" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J30" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K30" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M30" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N30" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O30" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P30" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q30" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R30" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S30" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T30" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U30" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V30" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W30" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X30" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y30" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C31" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E31" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6646,25 +6648,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T31" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U31" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V31" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W31" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X31" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y31" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1336.111464120701</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C32" t="n">
-        <v>1171.796632052941</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D32" t="n">
-        <v>1171.796632052941</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="E32" t="n">
-        <v>1171.796632052941</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="F32" t="n">
         <v>743.9292024621484</v>
@@ -6692,10 +6694,10 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6704,46 +6706,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U32" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W32" t="n">
-        <v>2181.553498026298</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X32" t="n">
-        <v>1762.411034605609</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y32" t="n">
-        <v>1762.411034605609</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6780,19 +6782,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1043.799427915185</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C34" t="n">
-        <v>871.2377163984103</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D34" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E34" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F34" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G34" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2545.844385276825</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2267.41138452993</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1980.45587640036</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1708.429471986652</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1463.037717320064</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1235.618046634173</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1202.779539776674</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="C35" t="n">
-        <v>770.3988006762045</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="D35" t="n">
-        <v>770.3988006762045</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="E35" t="n">
-        <v>770.3988006762045</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F35" t="n">
-        <v>342.5313710854123</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G35" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M35" t="n">
-        <v>632.7278666362198</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362198</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="O35" t="n">
-        <v>1293.567921177998</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6965,22 +6967,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U35" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.221573682271</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W35" t="n">
-        <v>2048.221573682271</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X35" t="n">
-        <v>1629.079110261582</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="Y35" t="n">
-        <v>1629.079110261582</v>
+        <v>1015.012768265997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C37" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D37" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E37" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F37" t="n">
-        <v>447.554615037751</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G37" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T37" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U37" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W37" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y37" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2243.76125594652</v>
+        <v>512.2184310291448</v>
       </c>
       <c r="C38" t="n">
-        <v>1805.618783129943</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="D38" t="n">
-        <v>1369.708998304388</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="E38" t="n">
-        <v>935.934253462683</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F38" t="n">
-        <v>508.0668238718908</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G38" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W38" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X38" t="n">
-        <v>2670.060826431428</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y38" t="n">
-        <v>2670.060826431428</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C40" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D40" t="n">
-        <v>403.0375283363603</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E40" t="n">
-        <v>233.2795245870976</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F40" t="n">
-        <v>56.57247054885377</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1324.483577572625</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C41" t="n">
-        <v>1324.483577572625</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D41" t="n">
-        <v>888.5737927470695</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E41" t="n">
-        <v>454.7990479053647</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
@@ -7418,19 +7420,19 @@
         <v>1810.336013065103</v>
       </c>
       <c r="M41" t="n">
-        <v>1954.407975719776</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N41" t="n">
-        <v>1954.407975719776</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O41" t="n">
-        <v>1954.407975719776</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7448,13 +7450,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W41" t="n">
-        <v>2265.205371842461</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X41" t="n">
-        <v>2159.06927175788</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y41" t="n">
-        <v>1750.783148057533</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C42" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D42" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E42" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F42" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G42" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I42" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J42" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q42" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R42" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S42" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T42" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U42" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V42" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W42" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X42" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y42" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7594,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462.52534286434</v>
+        <v>389.6379614873613</v>
       </c>
       <c r="C44" t="n">
-        <v>33.94366860160834</v>
+        <v>389.6379614873613</v>
       </c>
       <c r="D44" t="n">
-        <v>33.94366860160834</v>
+        <v>389.6379614873613</v>
       </c>
       <c r="E44" t="n">
-        <v>33.94366860160834</v>
+        <v>389.6379614873613</v>
       </c>
       <c r="F44" t="n">
-        <v>33.94366860160834</v>
+        <v>389.6379614873613</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M44" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N44" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V44" t="n">
-        <v>1114.499252887282</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W44" t="n">
-        <v>709.6437982983157</v>
+        <v>1643.366119093305</v>
       </c>
       <c r="X44" t="n">
-        <v>462.52534286434</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="Y44" t="n">
-        <v>462.52534286434</v>
+        <v>815.9375319722691</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.94366860160834</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.062614956869</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U46" t="n">
-        <v>1013.629614209975</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V46" t="n">
-        <v>726.6741060804052</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W46" t="n">
-        <v>454.6477016666967</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X46" t="n">
-        <v>209.2559470001092</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.94366860160834</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930885</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212329</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,7 +8139,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960969</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,7 +8619,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8927,25 +8929,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>30.03100411261573</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q18" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>225.1134469741761</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>910.7345556956095</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.03100411261585</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10428,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,28 +10588,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11063,25 +11065,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11458,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22561,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>214.1182619728135</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>150.1285623589238</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>37.3836305457358</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>96.5625395927552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>137.0693819656116</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>154.4811665012652</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>65.20415515853239</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>58.58727362741747</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>254.459006914895</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>300.1320831706701</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23072,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>123.0178539376686</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23309,19 +23311,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>149.7444943270107</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.48800580459471</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>18.31929241554579</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.2140943744906</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>336.4938234137932</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>96.08305090284327</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>346.9912687820852</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>368.7791696141422</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24020,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>84.82239053945071</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24206,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24263,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>265.5219185415922</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>113.8761173587626</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>34.52472642117559</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>107.1930383200163</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24680,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>372.2077400688331</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>282.3313048248018</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24731,22 +24733,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>271.0893643413277</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24926,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>158.7162236382588</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.704116378946082</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>297.2746104954518</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>377.3284802750001</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>233.9163762834864</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7958207444076</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>309.8762997027464</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>369.4479714591266</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25877,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>64.50947555382334</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25916,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>170.3037679068465</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482265.8331433889</v>
+        <v>482265.833143389</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482265.8331433889</v>
+        <v>482265.833143389</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>589407.0579300292</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751306.9245482795</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482265.8331433888</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482265.8331433889</v>
+        <v>482265.833143389</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482265.833143389</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482265.8331433889</v>
+        <v>482265.833143389</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482265.8331433889</v>
+        <v>482265.833143389</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342820.7214864046</v>
+        <v>482265.833143389</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="C2" t="n">
-        <v>126821.7106717145</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="D2" t="n">
         <v>126821.7106717144</v>
@@ -26329,10 +26331,10 @@
         <v>126821.7106717144</v>
       </c>
       <c r="H2" t="n">
-        <v>154996.6973224159</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="I2" t="n">
-        <v>197571.5940515071</v>
+        <v>126821.7106717145</v>
       </c>
       <c r="J2" t="n">
         <v>126821.7106717144</v>
@@ -26353,7 +26355,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="P2" t="n">
-        <v>90151.75317155513</v>
+        <v>126821.7106717144</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97732.86753544268</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14853.50628781397</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>17770.48083418235</v>
       </c>
       <c r="C4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="D4" t="n">
         <v>17770.48083418235</v>
       </c>
       <c r="E4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="F4" t="n">
         <v>17770.48083418235</v>
@@ -26433,19 +26435,19 @@
         <v>17770.48083418235</v>
       </c>
       <c r="H4" t="n">
-        <v>21718.40944693922</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="I4" t="n">
-        <v>27684.07875020268</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="J4" t="n">
         <v>17770.48083418235</v>
       </c>
       <c r="K4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="L4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="M4" t="n">
         <v>17770.48083418235</v>
@@ -26454,10 +26456,10 @@
         <v>17770.48083418235</v>
       </c>
       <c r="O4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="P4" t="n">
-        <v>12632.2219864234</v>
+        <v>17770.48083418235</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>55372.66098629306</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-188860.9933082705</v>
       </c>
       <c r="C6" t="n">
-        <v>34838.70527577442</v>
+        <v>34838.70527577437</v>
       </c>
       <c r="D6" t="n">
-        <v>34838.70527577439</v>
+        <v>34838.70527577438</v>
       </c>
       <c r="E6" t="n">
-        <v>68466.30527577436</v>
+        <v>68466.30527577437</v>
       </c>
       <c r="F6" t="n">
-        <v>68466.30527577436</v>
+        <v>68466.30527577437</v>
       </c>
       <c r="G6" t="n">
-        <v>68466.30527577436</v>
+        <v>68466.30527577437</v>
       </c>
       <c r="H6" t="n">
-        <v>12282.85753116622</v>
+        <v>68466.30527577439</v>
       </c>
       <c r="I6" t="n">
-        <v>-5563.590839930781</v>
+        <v>68466.3052757744</v>
       </c>
       <c r="J6" t="n">
-        <v>53612.79898796039</v>
+        <v>-106185.0434419318</v>
       </c>
       <c r="K6" t="n">
-        <v>68466.30527577436</v>
+        <v>68466.30527577439</v>
       </c>
       <c r="L6" t="n">
-        <v>68466.30527577439</v>
+        <v>68466.30527577437</v>
       </c>
       <c r="M6" t="n">
-        <v>68466.30527577439</v>
+        <v>68466.30527577437</v>
       </c>
       <c r="N6" t="n">
-        <v>68466.30527577436</v>
+        <v>68466.30527577437</v>
       </c>
       <c r="O6" t="n">
-        <v>68466.30527577439</v>
+        <v>68466.30527577437</v>
       </c>
       <c r="P6" t="n">
-        <v>51722.34304790938</v>
+        <v>68466.30527577437</v>
       </c>
     </row>
   </sheetData>
@@ -26790,46 +26792,46 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>910.7345556956095</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>367.5259476891358</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.76990983096869</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34775,10 +34777,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930885</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212329</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960969</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,25 +35649,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>30.03100411261573</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q18" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>225.1134469741761</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,19 +36132,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>910.7345556956095</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850634</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,28 +36360,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.03100411261585</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36841,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37306,28 +37308,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37552,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37783,25 +37785,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180392.2920670368</v>
+        <v>176174.0584267521</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5576499.113312964</v>
+        <v>5576499.113312963</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>183.2655910901553</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>192.1206041023296</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>161.0723471410682</v>
       </c>
       <c r="E4" t="n">
-        <v>130.6767931660343</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4813050116883</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>231.8397749350064</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>102.8562685532377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5775678651637</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>140.6819669404692</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>22.28534392847715</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>141.8554506993349</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>163.2209990735473</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.45405731752562</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>295.2981906286847</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>92.94317397949455</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>253.8159699232727</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>190.1558021083726</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2086,22 +2086,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>28.60468344882653</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>12.08702676164305</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>302.8529826749506</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>93.46886202391953</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>56.95997704284469</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,13 +2563,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>309.7841492354902</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>149.4370413361369</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>141.2574504700825</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>77.55621165767415</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>12.7504573306737</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>264.8725316566255</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>132.162386897836</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>250.4294747341478</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3435,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>39.57637241135512</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>216.356284119349</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>56.43256781341088</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>318.0570141679875</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.75529100421647</v>
+        <v>39.01187697582581</v>
       </c>
     </row>
     <row r="42">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>140.6427648303374</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>332.8743775091454</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1835.475132246174</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C2" t="n">
-        <v>1397.332659429597</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="D2" t="n">
-        <v>961.4228746040417</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="E2" t="n">
-        <v>527.6481297623368</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="F2" t="n">
-        <v>527.6481297623368</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>247.4624327936079</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862857</v>
@@ -4366,16 +4366,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>2670.060826431428</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y2" t="n">
-        <v>2261.774702731082</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.1364226482442</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C4" t="n">
-        <v>922.1364226482442</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D4" t="n">
-        <v>756.2584298497669</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262989</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.766466719711</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.374712053123</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.955041367231</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.2549115535347</v>
+        <v>2023.694028819559</v>
       </c>
       <c r="C5" t="n">
-        <v>752.2549115535347</v>
+        <v>1585.551556002982</v>
       </c>
       <c r="D5" t="n">
-        <v>454.7990479053647</v>
+        <v>1149.641771177427</v>
       </c>
       <c r="E5" t="n">
-        <v>454.7990479053647</v>
+        <v>715.8670263357217</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>287.9995967449294</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748445</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2410.838523748445</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>2005.983069159479</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.840605738789</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="Y5" t="n">
-        <v>1178.554482038443</v>
+        <v>2449.993599304466</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536161</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1568898368411</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1568898368411</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425083</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342.9481604582723</v>
+        <v>1057.14638787069</v>
       </c>
       <c r="C8" t="n">
-        <v>342.9481604582723</v>
+        <v>1057.14638787069</v>
       </c>
       <c r="D8" t="n">
-        <v>342.9481604582723</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>342.9481604582723</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739147</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294914</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291448</v>
+        <v>1483.445958355598</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>900.7186013536161</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1568898368411</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>562.2788970383638</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>392.520893289101</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>215.8138392508572</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4974,7 +4974,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425083</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1319.956890758495</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1092.537220072603</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1483.445958355599</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C11" t="n">
-        <v>1483.445958355599</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.536173530043</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.536173530043</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F11" t="n">
-        <v>619.6687439392508</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G11" t="n">
-        <v>218.2709125625147</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V11" t="n">
-        <v>2307.443876365255</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.588421776288</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X11" t="n">
-        <v>1483.445958355599</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y11" t="n">
-        <v>1483.445958355599</v>
+        <v>1325.360009318457</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1113.955041367231</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>941.3933298504563</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>775.515337051979</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>605.7573333027162</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>429.0502792644725</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>263.4590042903001</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>123.5568299806746</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1011.477214236518</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C14" t="n">
-        <v>1011.477214236518</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D14" t="n">
-        <v>575.5674294109622</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E14" t="n">
-        <v>481.6854354922808</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>518.386598053036</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L14" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M14" t="n">
-        <v>1840.066707136593</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N14" t="n">
-        <v>2500.906761678372</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5308,22 +5308,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W14" t="n">
-        <v>2265.205371842461</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="X14" t="n">
-        <v>1846.062908421772</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="Y14" t="n">
-        <v>1437.776784721425</v>
+        <v>2087.376649238293</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1075.159834655252</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C17" t="n">
-        <v>1075.159834655252</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D17" t="n">
-        <v>1075.159834655252</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E17" t="n">
-        <v>1075.159834655252</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F17" t="n">
-        <v>647.2924050644597</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G17" t="n">
-        <v>245.8945736877236</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
@@ -5521,22 +5521,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O17" t="n">
-        <v>1462.721985931055</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5545,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365255</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355599</v>
+        <v>1409.01188313462</v>
       </c>
       <c r="Y17" t="n">
-        <v>1075.159834655252</v>
+        <v>1000.725759434274</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5667,10 +5667,10 @@
         <v>71.64038557131298</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2107.119422805321</v>
+        <v>1610.355894242377</v>
       </c>
       <c r="C20" t="n">
-        <v>1668.976949988744</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="D20" t="n">
-        <v>1233.067165163189</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="E20" t="n">
-        <v>799.2924203214839</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F20" t="n">
-        <v>371.4249907306916</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
@@ -5767,37 +5767,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>2657.851708490374</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488304</v>
+        <v>2437.784481363413</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.119422805321</v>
+        <v>2437.784481363413</v>
       </c>
       <c r="V20" t="n">
-        <v>2107.119422805321</v>
+        <v>2437.784481363413</v>
       </c>
       <c r="W20" t="n">
-        <v>2107.119422805321</v>
+        <v>2437.784481363413</v>
       </c>
       <c r="X20" t="n">
-        <v>2107.119422805321</v>
+        <v>2018.642017942724</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.119422805321</v>
+        <v>1610.355894242377</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
@@ -5901,13 +5901,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5916,7 +5916,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
         <v>1292.433105213328</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1178.120736676713</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C23" t="n">
-        <v>1178.120736676713</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="D23" t="n">
-        <v>1178.120736676713</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="E23" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="F23" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="G23" t="n">
         <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
@@ -5995,46 +5995,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M23" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N23" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O23" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V23" t="n">
-        <v>2012.706430861968</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W23" t="n">
-        <v>2012.706430861968</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X23" t="n">
-        <v>2012.706430861968</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y23" t="n">
-        <v>1604.420307161621</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6071,19 +6071,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
         <v>1058.729261281022</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>705.359723599933</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6174,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1789.095648603258</v>
+        <v>1668.234185817604</v>
       </c>
       <c r="C26" t="n">
-        <v>1350.953175786681</v>
+        <v>1230.091713001027</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>794.1819281754715</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194209</v>
+        <v>794.1819281754715</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862857</v>
+        <v>366.3144985846793</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2215.395219088166</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V26" t="n">
-        <v>2215.395219088166</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W26" t="n">
-        <v>2215.395219088166</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="X26" t="n">
-        <v>2215.395219088166</v>
+        <v>1668.234185817604</v>
       </c>
       <c r="Y26" t="n">
-        <v>2215.395219088166</v>
+        <v>1668.234185817604</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6375,13 +6375,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1068.002727591034</v>
+        <v>1757.135524511149</v>
       </c>
       <c r="C29" t="n">
-        <v>629.8602547744572</v>
+        <v>1318.993051694572</v>
       </c>
       <c r="D29" t="n">
-        <v>629.8602547744572</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E29" t="n">
-        <v>196.0855099327524</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862857</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6481,10 +6481,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2591.721218696403</v>
       </c>
       <c r="U29" t="n">
-        <v>2670.060826431428</v>
+        <v>2591.721218696403</v>
       </c>
       <c r="V29" t="n">
-        <v>2307.443876365255</v>
+        <v>2591.721218696403</v>
       </c>
       <c r="W29" t="n">
-        <v>1902.588421776288</v>
+        <v>2591.721218696403</v>
       </c>
       <c r="X29" t="n">
-        <v>1902.588421776288</v>
+        <v>2591.721218696403</v>
       </c>
       <c r="Y29" t="n">
-        <v>1494.302298075942</v>
+        <v>2183.435094996057</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C30" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D30" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E30" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F30" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G30" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S30" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T30" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U30" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V30" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W30" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X30" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y30" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="31">
@@ -6615,10 +6615,10 @@
         <v>71.64038557131298</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1011.477214236518</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="C32" t="n">
-        <v>1011.477214236518</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="D32" t="n">
-        <v>1011.477214236518</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="E32" t="n">
-        <v>1011.477214236518</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
         <v>743.9292024621484</v>
@@ -6694,10 +6694,10 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6718,34 +6718,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W32" t="n">
-        <v>2265.205371842461</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X32" t="n">
-        <v>1846.062908421772</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="Y32" t="n">
-        <v>1437.776784721425</v>
+        <v>1190.583197132817</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6782,19 +6782,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>588.7131977810893</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C35" t="n">
-        <v>588.7131977810893</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="D35" t="n">
-        <v>588.7131977810893</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2158372782247</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="F35" t="n">
-        <v>455.2158372782247</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="G35" t="n">
-        <v>53.81800590148856</v>
+        <v>306.3602819166566</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6943,46 +6943,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.771296621484</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>1828.15434655531</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W35" t="n">
-        <v>1423.298891966344</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X35" t="n">
-        <v>1423.298891966344</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y35" t="n">
-        <v>1015.012768265997</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F37" t="n">
-        <v>193.303390838254</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G37" t="n">
         <v>193.303390838254</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7119,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1454.159747764828</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>512.2184310291448</v>
+        <v>1217.000418100404</v>
       </c>
       <c r="C38" t="n">
-        <v>455.2158372782247</v>
+        <v>778.8579452838278</v>
       </c>
       <c r="D38" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F38" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G38" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>488.6559039815464</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L38" t="n">
-        <v>488.6559039815464</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M38" t="n">
-        <v>488.6559039815464</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N38" t="n">
-        <v>1149.495958523325</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7204,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.119422805321</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V38" t="n">
-        <v>1744.502472739147</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W38" t="n">
-        <v>1339.647018150181</v>
+        <v>1643.299988585312</v>
       </c>
       <c r="X38" t="n">
-        <v>920.5045547294914</v>
+        <v>1643.299988585312</v>
       </c>
       <c r="Y38" t="n">
-        <v>512.2184310291448</v>
+        <v>1643.299988585312</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.8950539462408</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C40" t="n">
-        <v>590.3333424294657</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D40" t="n">
-        <v>424.4553496309884</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E40" t="n">
-        <v>254.6973458817257</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F40" t="n">
-        <v>77.99029184348186</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.13334335112</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.7136726652279</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.512437976118</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="C41" t="n">
-        <v>1351.369965159541</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D41" t="n">
-        <v>915.4601803339856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E41" t="n">
-        <v>481.6854354922808</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F41" t="n">
-        <v>53.81800590148856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G41" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L41" t="n">
-        <v>1810.336013065103</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M41" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N41" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X41" t="n">
-        <v>2250.918363010739</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y41" t="n">
-        <v>2215.812008461025</v>
+        <v>881.0986183902725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7560,13 +7560,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>389.6379614873613</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="C44" t="n">
-        <v>389.6379614873613</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="D44" t="n">
-        <v>389.6379614873613</v>
+        <v>484.5947699039349</v>
       </c>
       <c r="E44" t="n">
-        <v>389.6379614873613</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F44" t="n">
-        <v>389.6379614873613</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2410.838523748445</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>2048.221573682272</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W44" t="n">
-        <v>1643.366119093305</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X44" t="n">
-        <v>1224.223655672616</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y44" t="n">
-        <v>815.9375319722691</v>
+        <v>920.5045547294905</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7830,28 +7830,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212329</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,7 +8139,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960969</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8692,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8929,25 +8929,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>30.03100411261573</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L14" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9169,7 +9169,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>316.3899266744752</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10591,25 +10591,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N38" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O38" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L41" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P41" t="n">
-        <v>200.8936957823703</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>214.1182619728135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94.11824890888633</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22606,13 +22606,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.14686572942432</v>
       </c>
       <c r="E4" t="n">
-        <v>37.3836305457358</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>137.0693819656116</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>165.5440781279623</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.20415515853239</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.459006914895</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>290.8687200368307</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>280.1811240807237</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>123.0178539376686</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>18.31929241554579</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>126.738384151374</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>336.4938234137932</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>168.220604856786</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>96.08305090284327</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>368.7791696141422</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.7283283163583</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24214,13 +24214,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>94.53087038801817</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>265.5219185415922</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>113.8761173587626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>87.59970382747855</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>107.1930383200163</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>282.3313048248018</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>140.3103431980176</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>409.286117449385</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24925,10 +24925,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>158.7162236382588</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>69.71657238081384</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>297.2746104954518</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>35.80937827706813</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.789189859683773</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>377.3284802750001</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>82.74988587508949</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.4479714591266</v>
+        <v>365.1913854875173</v>
       </c>
     </row>
     <row r="42">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>288.7942325629504</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>64.50947555382334</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482265.833143389</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482265.833143389</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="5">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482265.833143389</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482265.833143389</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482265.833143389</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482265.833143389</v>
+        <v>482265.8331433889</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="I2" t="n">
-        <v>126821.7106717145</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="J2" t="n">
         <v>126821.7106717144</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>17770.48083418235</v>
       </c>
       <c r="C4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="D4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="E4" t="n">
         <v>17770.48083418235</v>
@@ -26432,10 +26432,10 @@
         <v>17770.48083418235</v>
       </c>
       <c r="G4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="H4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="I4" t="n">
         <v>17770.48083418235</v>
@@ -26472,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188860.9933082705</v>
+        <v>-189355.8835368518</v>
       </c>
       <c r="C6" t="n">
-        <v>34838.70527577437</v>
+        <v>34343.81504719311</v>
       </c>
       <c r="D6" t="n">
-        <v>34838.70527577438</v>
+        <v>34343.81504719314</v>
       </c>
       <c r="E6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719309</v>
       </c>
       <c r="F6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719314</v>
       </c>
       <c r="G6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719311</v>
       </c>
       <c r="H6" t="n">
-        <v>68466.30527577439</v>
+        <v>67971.41504719314</v>
       </c>
       <c r="I6" t="n">
-        <v>68466.3052757744</v>
+        <v>67971.41504719309</v>
       </c>
       <c r="J6" t="n">
-        <v>-106185.0434419318</v>
+        <v>-106679.933670513</v>
       </c>
       <c r="K6" t="n">
-        <v>68466.30527577439</v>
+        <v>67971.41504719314</v>
       </c>
       <c r="L6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719309</v>
       </c>
       <c r="M6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719309</v>
       </c>
       <c r="N6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719309</v>
       </c>
       <c r="O6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719306</v>
       </c>
       <c r="P6" t="n">
-        <v>68466.30527577437</v>
+        <v>67971.41504719309</v>
       </c>
     </row>
   </sheetData>
@@ -26792,46 +26792,46 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212329</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960969</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35339,7 +35339,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35412,22 +35412,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35649,25 +35649,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>30.03100411261573</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L14" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35889,7 +35889,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>316.3899266744752</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36284,10 +36284,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36363,7 +36363,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37311,25 +37311,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37545,25 +37545,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N38" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O38" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697544</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L41" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P41" t="n">
-        <v>200.8936957823703</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
